--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_78__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_78__Reeval_Sobol_Modell_1.1.xlsx
@@ -6142,10 +6142,10 @@
                   <c:v>51.42172622680664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.50585174560547</c:v>
+                  <c:v>44.5058479309082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.78435897827148</c:v>
+                  <c:v>47.78436279296875</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.8745195269584656</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>1.575304508209229</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.387870311737061</c:v>
+                  <c:v>3.38786792755127</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>48.36208724975586</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>51.67309188842773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.531484603881836</c:v>
+                  <c:v>8.531485557556152</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>48.9015998840332</c:v>
@@ -6184,7 +6184,7 @@
                   <c:v>45.60955047607422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.2203702628612518</c:v>
+                  <c:v>-0.2203657031059265</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>47.85193252563477</c:v>
@@ -6196,7 +6196,7 @@
                   <c:v>-0.8458574414253235</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.85341644287109</c:v>
+                  <c:v>48.85342025756836</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.009284290485084057</c:v>
@@ -6211,13 +6211,13 @@
                   <c:v>50.88928985595703</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.390120148658752</c:v>
+                  <c:v>-1.390117883682251</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2.229601860046387</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.264653444290161</c:v>
+                  <c:v>-1.26465117931366</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.8744283318519592</c:v>
@@ -6244,19 +6244,19 @@
                   <c:v>-1.34125292301178</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.09417867660522461</c:v>
+                  <c:v>-0.09417639672756195</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>51.36665344238281</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.61383438110352</c:v>
+                  <c:v>51.61383819580078</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.59867477416992</c:v>
+                  <c:v>34.59866714477539</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32.68667984008789</c:v>
+                  <c:v>32.68667602539062</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>51.6567268371582</c:v>
@@ -6265,16 +6265,16 @@
                   <c:v>42.65508651733398</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>46.72843933105469</c:v>
+                  <c:v>46.72844314575195</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.224528789520264</c:v>
+                  <c:v>6.224526405334473</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>51.19927978515625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.126519680023193</c:v>
+                  <c:v>-3.126517295837402</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>24.06302070617676</c:v>
@@ -6292,13 +6292,13 @@
                   <c:v>6.705922603607178</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51.51085662841797</c:v>
+                  <c:v>51.51086044311523</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>53.18156051635742</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.7125014662742615</c:v>
+                  <c:v>0.7125037312507629</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>33.12227630615234</c:v>
@@ -6328,7 +6328,7 @@
                   <c:v>-0.3413350284099579</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1661985963582993</c:v>
+                  <c:v>0.1662008762359619</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-1.000954985618591</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>46.61230087280273</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>31.65791320800781</c:v>
+                  <c:v>31.65790939331055</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-0.86250901222229</c:v>
@@ -6349,7 +6349,7 @@
                   <c:v>33.14569854736328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.6518105268478394</c:v>
+                  <c:v>-0.6518082618713379</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>52.95319747924805</c:v>
@@ -6361,19 +6361,19 @@
                   <c:v>45.28812026977539</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.836572885513306</c:v>
+                  <c:v>3.836575269699097</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.9542759656906128</c:v>
+                  <c:v>-0.9542737007141113</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>36.9859619140625</c:v>
+                  <c:v>36.98596572875977</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>48.83927154541016</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.2259635925293</c:v>
+                  <c:v>40.22595596313477</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>34.8227653503418</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>47.78969192504883</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.8746426105499268</c:v>
+                  <c:v>-0.8746403455734253</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-0.9801365733146667</c:v>
@@ -6409,22 +6409,22 @@
                   <c:v>-0.8744283318519592</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.61981201171875</c:v>
+                  <c:v>47.61981582641602</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>50.08059310913086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>33.59651947021484</c:v>
+                  <c:v>33.59651565551758</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>50.89548492431641</c:v>
+                  <c:v>50.89548110961914</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>20.15985107421875</c:v>
+                  <c:v>20.15984916687012</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.7449657320976257</c:v>
+                  <c:v>-0.7449634671211243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>44.50585174560547</v>
+        <v>44.5058479309082</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.78435897827148</v>
+        <v>47.78436279296875</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.387870311737061</v>
+        <v>3.38786792755127</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8.531484603881836</v>
+        <v>8.531485557556152</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.2203702628612518</v>
+        <v>-0.2203657031059265</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>48.85341644287109</v>
+        <v>48.85342025756836</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-1.390120148658752</v>
+        <v>-1.390117883682251</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.264653444290161</v>
+        <v>-1.26465117931366</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.09417867660522461</v>
+        <v>-0.09417639672756195</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>51.61383438110352</v>
+        <v>51.61383819580078</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>34.59867477416992</v>
+        <v>34.59866714477539</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>32.68667984008789</v>
+        <v>32.68667602539062</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>46.72843933105469</v>
+        <v>46.72844314575195</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>6.224528789520264</v>
+        <v>6.224526405334473</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-3.126519680023193</v>
+        <v>-3.126517295837402</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>51.51085662841797</v>
+        <v>51.51086044311523</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.7125014662742615</v>
+        <v>0.7125037312507629</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.1661985963582993</v>
+        <v>0.1662008762359619</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>31.65791320800781</v>
+        <v>31.65790939331055</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.6518105268478394</v>
+        <v>-0.6518082618713379</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3.836572885513306</v>
+        <v>3.836575269699097</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.9542759656906128</v>
+        <v>-0.9542737007141113</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>36.9859619140625</v>
+        <v>36.98596572875977</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>40.2259635925293</v>
+        <v>40.22595596313477</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.8746426105499268</v>
+        <v>-0.8746403455734253</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>47.61981201171875</v>
+        <v>47.61981582641602</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>33.59651947021484</v>
+        <v>33.59651565551758</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>50.89548492431641</v>
+        <v>50.89548110961914</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>20.15985107421875</v>
+        <v>20.15984916687012</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-0.7449657320976257</v>
+        <v>-0.7449634671211243</v>
       </c>
     </row>
     <row r="105" spans="1:6">
